--- a/reference/CodeSystemTable_20231022.xlsx
+++ b/reference/CodeSystemTable_20231022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4403A6A-6F89-E644-BE4B-13DC6B96938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71D136-AA1E-1D45-A006-B38F699DE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="500" windowWidth="31060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12820" yWindow="11660" windowWidth="31600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="294">
   <si>
     <t>医科診療行為マスター</t>
   </si>
@@ -580,9 +580,6 @@
   </si>
   <si>
     <t>YJ コード（個別医薬品コード）</t>
-  </si>
-  <si>
-    <t>1.2.392.100495.20.2.73</t>
   </si>
   <si>
     <t>HOT コード（9 桁）</t>
@@ -1315,9 +1312,6 @@
   <si>
     <t>http://jami.jp/CodeSystem/DrugDispensePreparationMethod</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/mhlw/CodeSystem/masterB-disease</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/mhlw/CodeSystem/masterZ-disease-modifier</t>
@@ -1477,12 +1471,24 @@
     <t>http://jpfhir.jp/fhir/core/医療機関識別OID番号/IdSystem/patientID</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/mhlw/CodeSystem/masterB-disease</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>YJコード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2.392.100495.20.2.73</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1548,8 +1554,15 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1580,6 +1593,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1595,7 +1614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1634,6 +1653,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1951,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K17:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1975,13 +2003,13 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="124" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -1996,10 +2024,10 @@
         <v>96</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="112">
@@ -2010,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="145" customHeight="1">
@@ -2018,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22" customHeight="1">
@@ -2050,7 +2078,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22" customHeight="1">
@@ -2082,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22" customHeight="1">
@@ -2114,7 +2142,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" customHeight="1">
@@ -2146,7 +2174,7 @@
         <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="22" customHeight="1">
@@ -2178,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>45</v>
@@ -2213,7 +2241,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="22" customHeight="1">
@@ -2245,7 +2273,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="22" customHeight="1">
@@ -2277,7 +2305,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="22" customHeight="1">
@@ -2309,7 +2337,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48">
@@ -2338,7 +2366,7 @@
         <v>49</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>45</v>
@@ -2370,7 +2398,7 @@
         <v>49</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -2378,246 +2406,252 @@
     </row>
     <row r="16" spans="1:13" ht="26" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="26" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G18" s="4">
         <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G19" s="4">
         <v>8</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="26" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="26" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="53" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="26" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="26" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="26" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="26" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="26" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="26" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="26" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="26" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="26" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="26" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
@@ -2835,47 +2869,47 @@
     <row r="49" spans="1:14" ht="26" customHeight="1"/>
     <row r="50" spans="1:14" ht="26" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="26" customHeight="1">
       <c r="L51" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:14" ht="26" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="L52" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="26" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>97</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>98</v>
@@ -2884,99 +2918,99 @@
     </row>
     <row r="54" spans="1:14" ht="26" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="26" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="26" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>101</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>102</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="26" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>103</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" ht="26" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="26" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>106</v>
@@ -2984,67 +3018,67 @@
     </row>
     <row r="60" spans="1:14" ht="26" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>107</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="26" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="26" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>108</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="26" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>109</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>110</v>
@@ -3052,7 +3086,7 @@
     </row>
     <row r="64" spans="1:14" ht="26" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>111</v>
@@ -3063,7 +3097,7 @@
     </row>
     <row r="65" spans="1:14" ht="26" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>113</v>
@@ -3072,376 +3106,374 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="26" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E66" s="8" t="s">
+    <row r="66" spans="1:14" s="13" customFormat="1" ht="26" customHeight="1">
+      <c r="E66" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="L66" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>145</v>
+      <c r="L66" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="M66" s="14"/>
+      <c r="N66" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="26" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="26" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="N68" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="26" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L69" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="N69" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="26" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="26" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L71" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="26" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="N72" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="26" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="N73" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="26" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="26" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="L75" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="26" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="26" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="26" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="26" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="26" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="26" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="26" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="26" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K83" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="L83" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="26" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="L84" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="26" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="L85" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="26" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="26" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="26" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="26" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L89" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="26" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="26" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="26" customHeight="1">
       <c r="A92" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="L92" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="24" customHeight="1"/>
@@ -3478,18 +3510,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="21">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/reference/CodeSystemTable_20231022.xlsx
+++ b/reference/CodeSystemTable_20231022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71D136-AA1E-1D45-A006-B38F699DE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F2832-A63D-594A-B66F-1C2EB4898B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="11660" windowWidth="31600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15760" yWindow="560" windowWidth="33680" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="294">
   <si>
     <t>医科診療行為マスター</t>
   </si>
@@ -619,9 +616,6 @@
   </si>
   <si>
     <t>1.2.392.100495.20.3.22</t>
-  </si>
-  <si>
-    <t>1.2.392.100495.20.3.23</t>
   </si>
   <si>
     <t>麻薬施用者免許番号</t>
@@ -1481,6 +1475,10 @@
   </si>
   <si>
     <t>1.2.392.100495.20.2.73</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2.392.100495.20.3.23</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1979,37 +1977,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="70.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="58.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" style="4" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" style="3" customWidth="1"/>
     <col min="14" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="124" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -2024,10 +2022,10 @@
         <v>96</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="112">
@@ -2038,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="145" customHeight="1">
@@ -2046,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22" customHeight="1">
@@ -2078,7 +2076,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22" customHeight="1">
@@ -2110,7 +2108,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22" customHeight="1">
@@ -2142,7 +2140,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" customHeight="1">
@@ -2174,7 +2172,7 @@
         <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="22" customHeight="1">
@@ -2206,7 +2204,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>45</v>
@@ -2241,7 +2239,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="22" customHeight="1">
@@ -2273,7 +2271,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="22" customHeight="1">
@@ -2305,7 +2303,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="22" customHeight="1">
@@ -2337,7 +2335,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48">
@@ -2366,7 +2364,7 @@
         <v>49</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>45</v>
@@ -2398,7 +2396,7 @@
         <v>49</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -2406,252 +2404,249 @@
     </row>
     <row r="16" spans="1:13" ht="26" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="26" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G18" s="4">
         <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G19" s="4">
         <v>8</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="26" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="26" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="53" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="26" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="26" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="26" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="26" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="26" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="26" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="26" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="26" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="26" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
@@ -2869,47 +2864,47 @@
     <row r="49" spans="1:14" ht="26" customHeight="1"/>
     <row r="50" spans="1:14" ht="26" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="26" customHeight="1">
       <c r="L51" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:14" ht="26" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="L52" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="26" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>97</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>98</v>
@@ -2918,99 +2913,99 @@
     </row>
     <row r="54" spans="1:14" ht="26" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="26" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="26" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>101</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>102</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="26" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>103</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" ht="26" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="26" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>106</v>
@@ -3018,67 +3013,67 @@
     </row>
     <row r="60" spans="1:14" ht="26" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>107</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="26" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="26" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>108</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="26" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>109</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>110</v>
@@ -3086,7 +3081,7 @@
     </row>
     <row r="64" spans="1:14" ht="26" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>111</v>
@@ -3097,7 +3092,7 @@
     </row>
     <row r="65" spans="1:14" ht="26" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>113</v>
@@ -3111,16 +3106,16 @@
         <v>115</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M66" s="14"/>
       <c r="N66" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="26" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>116</v>
@@ -3131,47 +3126,47 @@
     </row>
     <row r="68" spans="1:14" ht="26" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>118</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>119</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="26" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>120</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>121</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="26" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>122</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>123</v>
@@ -3179,13 +3174,13 @@
     </row>
     <row r="71" spans="1:14" ht="26" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>124</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>125</v>
@@ -3193,287 +3188,287 @@
     </row>
     <row r="72" spans="1:14" ht="26" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>126</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>127</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="26" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>128</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="26" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="26" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="L75" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="26" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="26" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="26" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="26" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="26" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="26" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="26" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="26" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="K83" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="L83" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="26" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="L84" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="26" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="L85" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="26" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="26" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="26" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="26" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L89" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="26" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="26" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="26" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="24" customHeight="1"/>
@@ -3510,18 +3505,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="21">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/reference/CodeSystemTable_20231022.xlsx
+++ b/reference/CodeSystemTable_20231022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F2832-A63D-594A-B66F-1C2EB4898B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9F321B-D7CF-554A-8AE2-E4528F6EF712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="560" windowWidth="33680" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$78:$E$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$B$56</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -598,9 +601,6 @@
   </si>
   <si>
     <t>処方箋 ID</t>
-  </si>
-  <si>
-    <t>1.2.392.100495.20.3.11</t>
   </si>
   <si>
     <t>調剤結果 ID</t>
@@ -1481,12 +1481,16 @@
     <t>1.2.392.100495.20.3.23</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>1.2.392.100495.20.3.11</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1559,6 +1563,15 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1607,12 +1620,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1661,8 +1677,15 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1977,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="E62" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2001,13 +2024,13 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="124" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -2022,10 +2045,10 @@
         <v>96</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="112">
@@ -2036,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="145" customHeight="1">
@@ -2044,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22" customHeight="1">
@@ -2076,7 +2099,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22" customHeight="1">
@@ -2108,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22" customHeight="1">
@@ -2140,7 +2163,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" customHeight="1">
@@ -2172,7 +2195,7 @@
         <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="22" customHeight="1">
@@ -2204,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>45</v>
@@ -2239,7 +2262,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="22" customHeight="1">
@@ -2271,7 +2294,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="22" customHeight="1">
@@ -2303,7 +2326,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="22" customHeight="1">
@@ -2335,7 +2358,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48">
@@ -2364,7 +2387,7 @@
         <v>49</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>45</v>
@@ -2396,7 +2419,7 @@
         <v>49</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -2404,249 +2427,249 @@
     </row>
     <row r="16" spans="1:13" ht="26" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="26" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" s="4">
         <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G19" s="4">
         <v>8</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="26" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="26" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="53" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="26" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="26" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="26" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="26" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="26" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="26" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="26" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="26" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="26" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
@@ -2743,7 +2766,7 @@
       <c r="E39" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="17" t="s">
         <v>71</v>
       </c>
       <c r="L39" s="5" t="s">
@@ -2857,54 +2880,54 @@
       <c r="C48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="26" customHeight="1"/>
     <row r="50" spans="1:14" ht="26" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="26" customHeight="1">
       <c r="L51" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:14" ht="26" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="L52" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="26" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>162</v>
+      <c r="K53" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>98</v>
@@ -2913,99 +2936,99 @@
     </row>
     <row r="54" spans="1:14" ht="26" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="26" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="26" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>101</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>102</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="26" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>103</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" ht="26" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="26" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>106</v>
@@ -3013,67 +3036,67 @@
     </row>
     <row r="60" spans="1:14" ht="26" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>107</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="26" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="26" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>108</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="26" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>109</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>110</v>
@@ -3081,7 +3104,7 @@
     </row>
     <row r="64" spans="1:14" ht="26" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>111</v>
@@ -3092,7 +3115,7 @@
     </row>
     <row r="65" spans="1:14" ht="26" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>113</v>
@@ -3106,16 +3129,16 @@
         <v>115</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M66" s="14"/>
       <c r="N66" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="26" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>116</v>
@@ -3126,349 +3149,349 @@
     </row>
     <row r="68" spans="1:14" ht="26" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>118</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>119</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="26" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>188</v>
+      <c r="K69" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>121</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="26" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>195</v>
+      <c r="K70" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="26" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L71" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="26" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="N72" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="26" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="N73" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="26" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="26" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="L75" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="26" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="26" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="26" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="26" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="26" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="26" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="26" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="26" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="K83" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="L83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="26" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="L84" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="26" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="K85" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="L85" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="26" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>223</v>
+        <v>149</v>
+      </c>
+      <c r="K86" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="26" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="26" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="26" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L89" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="26" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="26" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="26" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="24" customHeight="1"/>
@@ -3485,6 +3508,15 @@
     <sortCondition ref="B4:B54"/>
   </sortState>
   <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="K48" r:id="rId1" xr:uid="{221E3491-6867-C948-A826-ACA9D3980D9D}"/>
+    <hyperlink ref="K39" r:id="rId2" xr:uid="{37B370B0-4619-A04E-BC98-EBB2E1270F7C}"/>
+    <hyperlink ref="K85" r:id="rId3" xr:uid="{504A0358-757E-7842-9485-8F07B027C6B9}"/>
+    <hyperlink ref="K86" r:id="rId4" xr:uid="{34BEC03A-CD36-1C42-9832-BFD6FD01C46D}"/>
+    <hyperlink ref="K70" r:id="rId5" xr:uid="{5B334A2B-E0D8-DE4A-AB6B-159CA509C974}"/>
+    <hyperlink ref="K53" r:id="rId6" xr:uid="{F5AEE579-BA96-7941-8396-3D9C951F994E}"/>
+    <hyperlink ref="K69" r:id="rId7" xr:uid="{96D629AB-7993-A64A-A97A-4C79A24C898C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3505,18 +3537,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="21">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/reference/CodeSystemTable_20231022.xlsx
+++ b/reference/CodeSystemTable_20231022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9F321B-D7CF-554A-8AE2-E4528F6EF712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB4AA07-B392-1242-8A38-29DF3E4B50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="295">
   <si>
     <t>医科診療行為マスター</t>
   </si>
@@ -1483,6 +1483,13 @@
   </si>
   <si>
     <t>1.2.392.100495.20.3.11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JP-CORE1.1.2で使用</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1628,7 +1635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,6 +1689,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1998,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E62" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="E50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2017,12 +2042,13 @@
     <col min="9" max="9" width="5.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="58.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="38.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="4"/>
+    <col min="12" max="12" width="22.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="124" customHeight="1">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="124" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>283</v>
       </c>
@@ -2047,30 +2073,35 @@
       <c r="L1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="112">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="112">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="145" customHeight="1">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="145" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22" customHeight="1">
+    <row r="4" spans="1:14" ht="22" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2102,7 +2133,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="22" customHeight="1">
+    <row r="5" spans="1:14" ht="22" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2134,7 +2165,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="22" customHeight="1">
+    <row r="6" spans="1:14" ht="22" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2166,7 +2197,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="22" customHeight="1">
+    <row r="7" spans="1:14" ht="22" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2198,7 +2229,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="22" customHeight="1">
+    <row r="8" spans="1:14" ht="22" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2229,11 +2260,11 @@
       <c r="K8" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="22" customHeight="1">
+    <row r="9" spans="1:14" ht="22" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -2265,7 +2296,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="22" customHeight="1">
+    <row r="10" spans="1:14" ht="22" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -2297,7 +2328,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="22" customHeight="1">
+    <row r="11" spans="1:14" ht="22" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2329,7 +2360,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="22" customHeight="1">
+    <row r="12" spans="1:14" ht="22" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -2361,7 +2392,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="48">
+    <row r="13" spans="1:14" ht="48">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2389,11 +2420,11 @@
       <c r="K13" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="48">
+    <row r="14" spans="1:14" ht="48">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -2421,11 +2452,11 @@
       <c r="K14" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26" customHeight="1">
+    <row r="16" spans="1:14" ht="26" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>223</v>
       </c>
@@ -2672,13 +2703,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+    <row r="33" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M33" s="20"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2694,9 +2726,10 @@
       <c r="L34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M34" s="20"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2709,9 +2742,10 @@
       <c r="L35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M35" s="20"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>16</v>
       </c>
@@ -2724,9 +2758,10 @@
       <c r="L36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M36" s="20"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>16</v>
       </c>
@@ -2739,9 +2774,10 @@
       <c r="L37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M37" s="20"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>16</v>
       </c>
@@ -2757,9 +2793,10 @@
       <c r="L38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="10"/>
-    </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M38" s="20"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>16</v>
       </c>
@@ -2772,9 +2809,10 @@
       <c r="L39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M39" s="10"/>
-    </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M39" s="20"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
@@ -2787,9 +2825,10 @@
       <c r="L40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M40" s="10"/>
-    </row>
-    <row r="41" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M40" s="20"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>16</v>
       </c>
@@ -2805,16 +2844,18 @@
       <c r="L41" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M41" s="20"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row r="43" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M42" s="20"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>16</v>
       </c>
@@ -2830,9 +2871,10 @@
       <c r="L43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M43" s="10"/>
-    </row>
-    <row r="44" spans="1:13" s="5" customFormat="1" ht="26" customHeight="1">
+      <c r="M43" s="20"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>16</v>
       </c>
@@ -2848,10 +2890,11 @@
       <c r="L44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M44" s="10"/>
-    </row>
-    <row r="45" spans="1:13" ht="26" customHeight="1"/>
-    <row r="46" spans="1:13" ht="26" customHeight="1">
+      <c r="M44" s="20"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:14" ht="26" customHeight="1"/>
+    <row r="46" spans="1:14" ht="26" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>17</v>
       </c>
@@ -2862,7 +2905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="26" customHeight="1">
+    <row r="47" spans="1:14" ht="26" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>17</v>
       </c>
@@ -2873,7 +2916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="26" customHeight="1">
+    <row r="48" spans="1:14" ht="26" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>17</v>
       </c>
@@ -2884,25 +2927,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="26" customHeight="1"/>
-    <row r="50" spans="1:14" ht="26" customHeight="1">
+    <row r="49" spans="1:15" ht="26" customHeight="1"/>
+    <row r="50" spans="1:15" ht="26" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>286</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="26" customHeight="1">
+    <row r="51" spans="1:15" ht="26" customHeight="1">
       <c r="L51" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:14" ht="26" customHeight="1">
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" ht="26" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>286</v>
       </c>
@@ -2919,7 +2962,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="26" customHeight="1">
+    <row r="53" spans="1:15" ht="26" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>286</v>
       </c>
@@ -2932,9 +2975,9 @@
       <c r="L53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:14" ht="26" customHeight="1">
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:15" ht="26" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>286</v>
       </c>
@@ -2947,11 +2990,12 @@
       <c r="L54" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="21"/>
+      <c r="N54" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="26" customHeight="1">
+    <row r="55" spans="1:15" ht="26" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>286</v>
       </c>
@@ -2964,11 +3008,12 @@
       <c r="L55" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="21"/>
+      <c r="N55" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="26" customHeight="1">
+    <row r="56" spans="1:15" ht="26" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>286</v>
       </c>
@@ -2981,11 +3026,12 @@
       <c r="L56" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="21"/>
+      <c r="N56" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="26" customHeight="1">
+    <row r="57" spans="1:15" ht="26" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>286</v>
       </c>
@@ -2998,12 +3044,12 @@
       <c r="L57" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N57" s="7"/>
-    </row>
-    <row r="58" spans="1:14" ht="26" customHeight="1">
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" ht="26" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>286</v>
       </c>
@@ -3016,11 +3062,11 @@
       <c r="L58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="26" customHeight="1">
+    <row r="59" spans="1:15" ht="26" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>286</v>
       </c>
@@ -3034,7 +3080,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="26" customHeight="1">
+    <row r="60" spans="1:15" ht="26" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>286</v>
       </c>
@@ -3047,11 +3093,14 @@
       <c r="L60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="M60" s="19">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="26" customHeight="1">
+    <row r="61" spans="1:15" ht="26" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>286</v>
       </c>
@@ -3064,11 +3113,11 @@
       <c r="L61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="26" customHeight="1">
+    <row r="62" spans="1:15" ht="26" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>286</v>
       </c>
@@ -3081,14 +3130,14 @@
       <c r="L62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="26" customHeight="1">
+    <row r="63" spans="1:15" ht="26" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>286</v>
       </c>
@@ -3102,7 +3151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="26" customHeight="1">
+    <row r="64" spans="1:15" ht="26" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>286</v>
       </c>
@@ -3112,8 +3161,9 @@
       <c r="L64" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="26" customHeight="1">
+      <c r="M64" s="21"/>
+    </row>
+    <row r="65" spans="1:15" ht="26" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>286</v>
       </c>
@@ -3123,20 +3173,22 @@
       <c r="L65" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" s="13" customFormat="1" ht="26" customHeight="1">
+      <c r="M65" s="21"/>
+    </row>
+    <row r="66" spans="1:15" s="13" customFormat="1" ht="26" customHeight="1">
       <c r="E66" s="15" t="s">
         <v>115</v>
       </c>
       <c r="L66" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="M66" s="14"/>
-      <c r="N66" s="13" t="s">
+      <c r="M66" s="22"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="26" customHeight="1">
+    <row r="67" spans="1:15" ht="26" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>286</v>
       </c>
@@ -3146,8 +3198,9 @@
       <c r="L67" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="26" customHeight="1">
+      <c r="M67" s="21"/>
+    </row>
+    <row r="68" spans="1:15" ht="26" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>286</v>
       </c>
@@ -3160,11 +3213,11 @@
       <c r="L68" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="O68" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="26" customHeight="1">
+    <row r="69" spans="1:15" ht="26" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>286</v>
       </c>
@@ -3177,11 +3230,12 @@
       <c r="L69" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="M69" s="21"/>
+      <c r="O69" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="26" customHeight="1">
+    <row r="70" spans="1:15" ht="26" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>286</v>
       </c>
@@ -3195,7 +3249,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="26" customHeight="1">
+    <row r="71" spans="1:15" ht="26" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>286</v>
       </c>
@@ -3209,7 +3263,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="26" customHeight="1">
+    <row r="72" spans="1:15" ht="26" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>286</v>
       </c>
@@ -3222,11 +3276,11 @@
       <c r="L72" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="N72" s="7" t="s">
+      <c r="O72" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="26" customHeight="1">
+    <row r="73" spans="1:15" ht="26" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>286</v>
       </c>
@@ -3239,14 +3293,14 @@
       <c r="L73" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="N73" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="O73" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="26" customHeight="1">
+    <row r="74" spans="1:15" ht="26" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>286</v>
       </c>
@@ -3259,11 +3313,11 @@
       <c r="L74" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="26" customHeight="1">
+    <row r="75" spans="1:15" ht="26" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>286</v>
       </c>
@@ -3277,7 +3331,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="26" customHeight="1">
+    <row r="76" spans="1:15" ht="26" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>286</v>
       </c>
@@ -3291,7 +3345,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="26" customHeight="1">
+    <row r="77" spans="1:15" ht="26" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>286</v>
       </c>
@@ -3305,12 +3359,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="26" customHeight="1">
+    <row r="78" spans="1:15" ht="26" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="26" customHeight="1">
+    <row r="79" spans="1:15" ht="26" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>286</v>
       </c>
@@ -3324,7 +3378,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="26" customHeight="1">
+    <row r="80" spans="1:15" ht="26" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>286</v>
       </c>
@@ -3338,7 +3392,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="26" customHeight="1">
+    <row r="81" spans="1:14" ht="26" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>286</v>
       </c>
@@ -3352,7 +3406,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="26" customHeight="1">
+    <row r="82" spans="1:14" ht="26" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>286</v>
       </c>
@@ -3363,7 +3417,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="26" customHeight="1">
+    <row r="83" spans="1:14" ht="26" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>286</v>
       </c>
@@ -3377,7 +3431,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="26" customHeight="1">
+    <row r="84" spans="1:14" ht="26" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>286</v>
       </c>
@@ -3391,7 +3445,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="26" customHeight="1">
+    <row r="85" spans="1:14" ht="26" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>286</v>
       </c>
@@ -3405,7 +3459,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="26" customHeight="1">
+    <row r="86" spans="1:14" ht="26" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>286</v>
       </c>
@@ -3419,7 +3473,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="26" customHeight="1">
+    <row r="87" spans="1:14" ht="26" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>286</v>
       </c>
@@ -3427,7 +3481,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="26" customHeight="1">
+    <row r="88" spans="1:14" ht="26" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>286</v>
       </c>
@@ -3441,7 +3495,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="26" customHeight="1">
+    <row r="89" spans="1:14" ht="26" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>286</v>
       </c>
@@ -3455,7 +3509,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="26" customHeight="1">
+    <row r="90" spans="1:14" ht="26" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>286</v>
       </c>
@@ -3469,7 +3523,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="26" customHeight="1">
+    <row r="91" spans="1:14" ht="26" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>286</v>
       </c>
@@ -3480,7 +3534,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="26" customHeight="1">
+    <row r="92" spans="1:14" ht="26" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>286</v>
       </c>
@@ -3494,14 +3548,16 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="24" customHeight="1"/>
-    <row r="94" spans="1:13">
+    <row r="93" spans="1:14" ht="24" customHeight="1"/>
+    <row r="94" spans="1:14">
       <c r="L94" s="9"/>
-      <c r="M94" s="12"/>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="M94" s="23"/>
+      <c r="N94" s="12"/>
+    </row>
+    <row r="95" spans="1:14">
       <c r="L95" s="9"/>
-      <c r="M95" s="12"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B54">

--- a/reference/CodeSystemTable_20231022.xlsx
+++ b/reference/CodeSystemTable_20231022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB4AA07-B392-1242-8A38-29DF3E4B50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0C850D-F171-CB46-9E92-AC72EB90DA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1080" yWindow="8900" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,9 +543,6 @@
     <t>1.2.392.100495.20.2.33</t>
   </si>
   <si>
-    <t>1.2.392.100495.20.2.41</t>
-  </si>
-  <si>
     <t>1.2.392.100495.20.2.42</t>
   </si>
   <si>
@@ -1210,9 +1207,6 @@
       <t xml:space="preserve">エイスウジ </t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.2.392.200250.2.2.20.30</t>
   </si>
   <si>
     <t>1.2.392.200250.2.2.20.31</t>
@@ -1490,6 +1484,14 @@
     <rPh sb="13" eb="15">
       <t xml:space="preserve">シヨウ </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2.392.100495.20.2.41</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2.392.200250.2.2.20.30</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2025,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2040,23 +2042,23 @@
     <col min="7" max="7" width="3.42578125" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="58.85546875" style="4" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="19" customWidth="1"/>
     <col min="14" max="14" width="36.7109375" style="3" customWidth="1"/>
     <col min="15" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="124" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -2071,13 +2073,13 @@
         <v>96</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="112">
@@ -2089,7 +2091,7 @@
       </c>
       <c r="M2" s="18"/>
       <c r="N2" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="145" customHeight="1">
@@ -2098,7 +2100,7 @@
       </c>
       <c r="M3" s="18"/>
       <c r="N3" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="22" customHeight="1">
@@ -2130,7 +2132,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22" customHeight="1">
@@ -2162,7 +2164,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="22" customHeight="1">
@@ -2194,7 +2196,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="22" customHeight="1">
@@ -2226,7 +2228,7 @@
         <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22" customHeight="1">
@@ -2258,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>45</v>
@@ -2293,7 +2295,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="22" customHeight="1">
@@ -2325,7 +2327,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="22" customHeight="1">
@@ -2357,7 +2359,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="22" customHeight="1">
@@ -2389,7 +2391,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="48">
@@ -2418,7 +2420,7 @@
         <v>49</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>45</v>
@@ -2450,7 +2452,7 @@
         <v>49</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>45</v>
@@ -2458,249 +2460,255 @@
     </row>
     <row r="16" spans="1:14" ht="26" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="26" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="26" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="26" customHeight="1">
+    </row>
+    <row r="18" spans="1:13" ht="26" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G18" s="4">
         <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="26" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="26" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19" s="4">
         <v>8</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="26" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="26" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="26" customHeight="1">
+        <v>294</v>
+      </c>
+      <c r="M20" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="26" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="26" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="26" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="53" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="53" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="M23" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="26" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="26" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="26" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L24" s="4" t="s">
+    <row r="26" spans="1:13" ht="26" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="26" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L25" s="4" t="s">
+    <row r="27" spans="1:13" ht="26" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="26" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="26" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="26" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="26" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="26" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="26" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="26" customHeight="1">
+    <row r="30" spans="1:13" ht="26" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="26" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="26" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="26" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="26" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="5" customFormat="1" ht="26" customHeight="1">
@@ -2930,47 +2938,47 @@
     <row r="49" spans="1:15" ht="26" customHeight="1"/>
     <row r="50" spans="1:15" ht="26" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="26" customHeight="1">
       <c r="L51" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="1:15" ht="26" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="L52" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="26" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>97</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>98</v>
@@ -2979,573 +2987,603 @@
     </row>
     <row r="54" spans="1:15" ht="26" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>99</v>
       </c>
       <c r="M54" s="21"/>
       <c r="N54" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="26" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>100</v>
       </c>
       <c r="M55" s="21"/>
       <c r="N55" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="26" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>101</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>102</v>
       </c>
       <c r="M56" s="21"/>
       <c r="N56" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="26" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="7"/>
     </row>
     <row r="58" spans="1:15" ht="26" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="26" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L59" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="26" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M60" s="19">
         <v>1</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="26" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M61" s="19">
+        <v>1</v>
+      </c>
+      <c r="N61" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="26" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K62" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="L62" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="26" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L63" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="26" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L64" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="M64" s="21"/>
     </row>
     <row r="65" spans="1:15" ht="26" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L65" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="M65" s="21"/>
     </row>
     <row r="66" spans="1:15" s="13" customFormat="1" ht="26" customHeight="1">
       <c r="E66" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M66" s="22"/>
       <c r="N66" s="14"/>
       <c r="O66" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="26" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="M67" s="21"/>
     </row>
     <row r="68" spans="1:15" ht="26" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="O68" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="26" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L69" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="M69" s="21"/>
       <c r="O69" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="26" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+      <c r="M70" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="26" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L71" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="26" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="O72" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="26" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N73" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="O73" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="26" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="26" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="L75" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="M75" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="26" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="M76" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="26" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="26" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="26" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="M79" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="26" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="26" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="26" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="26" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K83" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="L83" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="26" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="L84" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="26" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K85" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="K85" s="16" t="s">
-        <v>221</v>
-      </c>
       <c r="L85" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="M85" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="26" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="M86" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="26" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="26" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="M88" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="26" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L89" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>133</v>
+      <c r="M89" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="26" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="26" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="26" customHeight="1">
       <c r="A92" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="L92" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="M92" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="24" customHeight="1"/>
@@ -3593,18 +3631,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="21">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
